--- a/biology/Botanique/Strychnos_camptoneura/Strychnos_camptoneura.xlsx
+++ b/biology/Botanique/Strychnos_camptoneura/Strychnos_camptoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos camptoneura est une espèce de plantes de la famille des Loganiaceae et du genre Strychnos, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos camptoneura est une espèce de plantes de la famille des Loganiaceae et du genre Strychnos, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce de grande liane pouvant atteindre 120 m de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce de grande liane pouvant atteindre 120 m de long.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été observée en Afrique tropicale, depuis le Liberia jusqu'en république centrafricaine et en république démocratique du Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été observée en Afrique tropicale, depuis le Liberia jusqu'en république centrafricaine et en république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement répandue, on la trouve dans les forêts pluviales jusqu'à 700 m d’altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement répandue, on la trouve dans les forêts pluviales jusqu'à 700 m d’altitude.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On lui connaît plusieurs usages en médecine traditionnelle, sous forme de décoction d'écorce ou de feuilles, pour traiter les défaillances sexuelles (Cameroun), le paludisme (Cameroun, Congo), les maux d’estomac, les douleurs rénales et la hernie[2].
-L'écorce de racine, mélangée à d'autres plantes, ou le fruit s'utilisent comme poison de flèche[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui connaît plusieurs usages en médecine traditionnelle, sous forme de décoction d'écorce ou de feuilles, pour traiter les défaillances sexuelles (Cameroun), le paludisme (Cameroun, Congo), les maux d’estomac, les douleurs rénales et la hernie.
+L'écorce de racine, mélangée à d'autres plantes, ou le fruit s'utilisent comme poison de flèche.
 </t>
         </is>
       </c>
